--- a/clip_label/label.xlsx
+++ b/clip_label/label.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivory/Documents/github/EZ_Cutter/clip_label/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365879C9-87BB-734C-9581-A3F4FB261CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD94814-98F7-8C49-AEDB-B3C82CFB4DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{B0E2CCEC-AF58-164A-802D-DC024E7616B5}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" activeTab="1" xr2:uid="{B0E2CCEC-AF58-164A-802D-DC024E7616B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="lblPrimaryActivity">[1]instructions!$C$19:$C$24</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="11">
   <si>
     <t>video_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,7 +137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,6 +150,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -158,6 +167,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="instructions"/>
+      <sheetName val="ppEXAMPLE"/>
+      <sheetName val="pp001_1"/>
+      <sheetName val="pp001_2"/>
+      <sheetName val="pp002_1"/>
+      <sheetName val="pp002_2"/>
+      <sheetName val="pp003_1"/>
+      <sheetName val="pp003_2"/>
+      <sheetName val="pp004_1"/>
+      <sheetName val="pp004_2"/>
+      <sheetName val="pp005_1"/>
+      <sheetName val="pp005_2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>Standing</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>Sitting</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>Lying</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>Locomotion</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Postural transition</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>Any other activity</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C5CBAA-63DA-5647-9794-F140BE9CF3A8}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -968,4 +1046,381 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91884AB9-39FE-604E-952A-2A6830B04D2C}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4.1782407407407402E-3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.0347222222222225E-3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.0347222222222225E-3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.0578703703703706E-3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5.0578703703703706E-3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.0925925925925921E-3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5.0925925925925921E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.2847222222222228E-3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6.2847222222222228E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.3078703703703708E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6.3078703703703708E-3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.3310185185185197E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6.3310185185185197E-3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.3657407407407404E-3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6.3657407407407404E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6.3773148148148148E-3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6.3773148148148148E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6.4120370370370364E-3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.4120370370370364E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.4351851851851861E-3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6.4351851851851861E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.8634259259259256E-3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6.8634259259259256E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6.875E-3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6.875E-3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6.8981481481481489E-3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>6.8981481481481489E-3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>7.0949074074074074E-3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.0949074074074074E-3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7.2337962962962963E-3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7.2337962962962963E-3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7.3379629629629628E-3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7.3379629629629628E-3</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7.3611111111111108E-3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7.3611111111111108E-3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>7.5694444444444446E-3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7.5694444444444446E-3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7.5810185185185182E-3</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7.5810185185185182E-3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7.6851851851851847E-3</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <v>7.6851851851851847E-3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7.743055555555556E-3</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>7.743055555555556E-3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7.9282407407407409E-3</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7.9282407407407409E-3</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7.9398148148148145E-3</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7.9398148148148145E-3</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7.9861111111111122E-3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{D91CE191-5B16-D44A-8406-4B86BC01D4CB}">
+      <formula1>lblPrimaryActivity</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>